--- a/junho.xlsx
+++ b/junho.xlsx
@@ -102,10 +102,10 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -323,134 +323,124 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="H2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>87.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>69.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>59.0</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>142.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>87.0</v>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>189.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>69.0</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>199.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>142.0</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>169.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>189.0</v>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>198.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>169.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>127.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>199.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
         <v>169.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>198.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>169.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>127.0</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>199.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>169.0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="2"/>
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
